--- a/data/trans_bre/LAWTONB_2R3-Dificultad-trans_bre.xlsx
+++ b/data/trans_bre/LAWTONB_2R3-Dificultad-trans_bre.xlsx
@@ -649,7 +649,7 @@
         <v>0.609180969576927</v>
       </c>
       <c r="J4" s="6" t="n">
-        <v>0.4489133488193068</v>
+        <v>0.4489133488193071</v>
       </c>
     </row>
     <row r="5">
@@ -660,28 +660,28 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-3.521560350190446</v>
+        <v>-4.48030508796494</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-6.209344727208551</v>
+        <v>-6.89794383038751</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>3.990070585801939</v>
+        <v>4.370661082167481</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>2.08778474351618</v>
+        <v>1.89764335346924</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>-0.1520852330964483</v>
+        <v>-0.1938135536273748</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>-0.1802793250014173</v>
+        <v>-0.1897929588509168</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1353159789245008</v>
+        <v>0.1807100091046298</v>
       </c>
       <c r="J5" s="6" t="n">
-        <v>0.0617012248162144</v>
+        <v>0.05016800229892954</v>
       </c>
     </row>
     <row r="6">
@@ -692,28 +692,28 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>13.24683925543539</v>
+        <v>12.77528065336706</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>14.77302992550969</v>
+        <v>14.35668111137395</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>20.66041768499117</v>
+        <v>20.92198732646715</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>24.42409269179988</v>
+        <v>24.24310324862656</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>0.9735059191946633</v>
+        <v>0.9212333211713755</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.6758170560858217</v>
+        <v>0.599701914702218</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>1.294733056962279</v>
+        <v>1.346699199525269</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>1.087254701635446</v>
+        <v>1.055865153769809</v>
       </c>
     </row>
     <row r="7">
@@ -737,7 +737,7 @@
         <v>7.678298568495423</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>10.81238476185585</v>
+        <v>10.81238476185586</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>-0.01790522837806163</v>
@@ -749,7 +749,7 @@
         <v>0.5670423501600251</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>0.5425270271597236</v>
+        <v>0.5425270271597241</v>
       </c>
     </row>
     <row r="8">
@@ -760,28 +760,28 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>-7.892426071439991</v>
+        <v>-8.296737208989999</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>-2.752996208592636</v>
+        <v>-1.738032724272942</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.198139310985683</v>
+        <v>-0.7471738314302317</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>4.297278089421023</v>
+        <v>3.455436634361327</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.4321450356318022</v>
+        <v>-0.4578576943351958</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.1282576670635427</v>
+        <v>-0.08715255901529541</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.009814711589465253</v>
+        <v>-0.04480923490752223</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>0.1781541868960407</v>
+        <v>0.1530751233473217</v>
       </c>
     </row>
     <row r="9">
@@ -792,28 +792,28 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>6.747536928819943</v>
+        <v>6.679831995717857</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>15.21083737167026</v>
+        <v>15.46697129775247</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>15.70492685763555</v>
+        <v>15.16856242731101</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>16.80141799600773</v>
+        <v>15.95596661973622</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.6475998094659072</v>
+        <v>0.6220945083270689</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>1.012453041935667</v>
+        <v>1.03107916905986</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>1.675109192176766</v>
+        <v>1.493693763853609</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>1.009502076278028</v>
+        <v>0.9501653055094723</v>
       </c>
     </row>
     <row r="10">
@@ -837,7 +837,7 @@
         <v>10.68385966685359</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>13.43699538159824</v>
+        <v>13.43699538159825</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.8613242393005835</v>
@@ -860,28 +860,28 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.2093170499679205</v>
+        <v>-0.2820550063949657</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-7.09680352616248</v>
+        <v>-6.631634423142017</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>2.642544741483019</v>
+        <v>3.215546866437036</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>7.692439179192768</v>
+        <v>7.893698913117222</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>-0.03101807666196653</v>
+        <v>-0.07920187739524269</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>-0.3175207232559313</v>
+        <v>-0.3036164547122089</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.1213865798758793</v>
+        <v>0.1837835197939714</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>0.5628079040790628</v>
+        <v>0.5592548366050529</v>
       </c>
     </row>
     <row r="12">
@@ -892,28 +892,28 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>14.87215429039258</v>
+        <v>15.01989191972752</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>10.55789343585569</v>
+        <v>10.99683741340965</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>19.57628371896893</v>
+        <v>20.0597288075007</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>18.29964554029881</v>
+        <v>18.66356188487335</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>3.098264135570676</v>
+        <v>2.764362142873425</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.7762724096745022</v>
+        <v>0.7514358414486156</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>2.13960672995667</v>
+        <v>2.389207628147933</v>
       </c>
       <c r="J12" s="6" t="n">
-        <v>1.941007955818735</v>
+        <v>2.034609625704471</v>
       </c>
     </row>
     <row r="13">
@@ -960,26 +960,26 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>-0.4409679605704026</v>
+        <v>-0.3761568255382344</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>-8.97172770664293</v>
+        <v>-9.11312539712265</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>-14.89877597992239</v>
+        <v>-14.9541757350038</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>-1.048136959102695</v>
+        <v>-1.090551235690586</v>
       </c>
       <c r="G14" s="6" t="inlineStr"/>
       <c r="H14" s="6" t="n">
-        <v>-0.4127886386722467</v>
+        <v>-0.419779175335774</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.7304166472654335</v>
+        <v>-0.7811860454923388</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.08434036186879285</v>
+        <v>-0.08434602801404242</v>
       </c>
     </row>
     <row r="15">
@@ -990,26 +990,26 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>24.82066488769325</v>
+        <v>27.30601352850795</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>16.78387695807955</v>
+        <v>16.73118409642534</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>3.826758690507844</v>
+        <v>3.038844303752825</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>10.07934802306127</v>
+        <v>9.880710766621064</v>
       </c>
       <c r="G15" s="6" t="inlineStr"/>
       <c r="H15" s="6" t="n">
-        <v>1.70130777817978</v>
+        <v>1.663610047786425</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.4037419313896506</v>
+        <v>0.3483905899671069</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.9953818743507873</v>
+        <v>0.9817674416950978</v>
       </c>
     </row>
     <row r="16">
@@ -1033,7 +1033,7 @@
         <v>8.385278083918388</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>12.22084726157377</v>
+        <v>12.22084726157376</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.4381587740580771</v>
@@ -1045,7 +1045,7 @@
         <v>0.5508232019590925</v>
       </c>
       <c r="J16" s="6" t="n">
-        <v>0.7632905827409064</v>
+        <v>0.7632905827409054</v>
       </c>
     </row>
     <row r="17">
@@ -1056,28 +1056,28 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>1.488456254572924</v>
+        <v>1.377410925984447</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-0.3605312391858402</v>
+        <v>0.06804125274590082</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>3.930355427541954</v>
+        <v>4.099030398858316</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>9.076470758444371</v>
+        <v>8.888775184332202</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.09594758236588288</v>
+        <v>0.0667337279011123</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>-0.01179267603104117</v>
+        <v>0.003043497792659494</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.2225279895404642</v>
+        <v>0.2259970656182899</v>
       </c>
       <c r="J17" s="6" t="n">
-        <v>0.5207721427011546</v>
+        <v>0.4841842066039075</v>
       </c>
     </row>
     <row r="18">
@@ -1088,28 +1088,28 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>9.802523659748783</v>
+        <v>10.07812636743738</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>9.64844726569323</v>
+        <v>9.952661040582052</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>12.83860235579648</v>
+        <v>13.26500146736885</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>15.26742473809178</v>
+        <v>15.2703572653973</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>0.9289565440331606</v>
+        <v>0.9477792706404241</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.5348798120537752</v>
+        <v>0.5482918903853184</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.9503780482701607</v>
+        <v>1.005171064236102</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>1.064216418783759</v>
+        <v>1.039631115648601</v>
       </c>
     </row>
     <row r="19">
